--- a/DCISM_WBRMSystem/file/temp_inventory/LB 442 (174 items).xlsx
+++ b/DCISM_WBRMSystem/file/temp_inventory/LB 442 (174 items).xlsx
@@ -144,7 +144,7 @@
     <t>LB 442</t>
   </si>
   <si>
-    <t>6/11/2020</t>
+    <t>8/13/2020</t>
   </si>
   <si>
     <t>Mouse</t>
@@ -31717,7 +31717,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kRZo8vlFpouSLB2DOARNhijMQMQZc+JOAMxQbi3+X0gNGihbaMFNpFcq20fZBpjp1IjERu55jM0U3T8w4aPoyQ==" saltValue="OmZfQSQB5F+CIHadpXTsaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WQ1ixJhD/7uQKXDjyrG2k1zE6kiMTbtYYiwU2DjW/u4+DeWE8Ah1hQX7K464hPZvf65pQfnSw6Eyd0CHeZeFUw==" saltValue="SrFRnYosN1PefcZ5Sf8Uog==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>
